--- a/500all/speech_level/speeches_CHRG-114hhrg95713.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95713.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations will come to order.    This subcommittee is meeting today to hear testimony on accountability, policies, and tactics of law enforcement within the Department of the Interior and the U.S. Forest Service.    Under Committee Rule 4(f), any oral statements at this hearing are limited to the Chairman and Ranking Minority Member. This will allow us to hear from our witnesses sooner and let Members keep to their schedules.    Therefore, I ask unanimous consent that all other Members' opening statements for this meeting be made part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today.    Hearing no objection, so ordered.    Also, I politely ask that everyone in this hearing please silence your cell phones. Make sure that there is nothing that goes off. When I was a judge, I would have my bailiff confiscate any phones that went off; and then you had to do a couple hundred hours of community service to get it back. I do not have a bailiff here as such; so I just have to ask that you keep your cell phone silent, please. Thank you.    All right. I will now recognize myself for 5 minutes for an opening statement.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>412637</t>
   </si>
   <si>
-    <t>Debbie Dingell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Dingell. Good morning and thank you, Mr. Chairman.    I want to give my thanks to all the witnesses this morning for taking the time and the trouble to testify, and I want to give particular thanks to Sheriff Brown and Mr. Schoppmeyer for their service.    Law enforcement within Federal land management agencies is no easy task. Conservation law enforcement officers face challenges that are significantly different than those faced by non-conservation law enforcement. The breadth of the crimes that they confront and the laws that they enforce are unlike any other.    As the Chairman has raised, there may be some problems; but we need to respect and understand the importance of what law enforcement is doing in these conservation areas.    A study of the crimes confronted by the Forest Service law enforcement officers found that they fall into three categories. The first is urban-associated crime, which includes arson, body dumping, gang activity, and other types of criminal behavior.    The second is drug activity, like armed defense of marijuana cultivation on Forest Service land, or methamphetamine labs--that is always a hard word.    The third is violence perpetrated by members of extremist and nontraditional groups, like satanic cults, survivalists, and militia/supremacy groups. These groups are tough.    The law enforcement officers there protect the resources we depend on every day and provide for public safety. While these officers' mandates are unique, the officers and the work that they do is under attack.    We will hear today about a proposal to weaken enforcement mechanisms for the Lacey Act by decriminalizing it, despite the use of illegally harvested plant or animal products, like ivory, to fund terrorist groups.    Like I do every night before our hearings, I was doing my late night study. The Chairman raised the issue of ``stove-piping.'' So I learned last night that it was instituted after years of pressure from watchdogs and Congress and was implemented to make Forest Service law enforcement more effective, fair, and independent.    So I want to make sure, as we are looking at it, that we are fair and objective on all of it, while I recognize that there may be issues.    And we will hear about the FOCUS Act, which would remove the ability for the Fish and Wildlife Service and NOAA enforcement officers to carry firearms.    The work performed by land management agency law enforcement is just as challenging, just as important, and just as dangerous as other law enforcement jobs. These Americans put their lives on the line whenever they report for work in an effort to protect us and our natural resources.    The Chairman mentioned Jason Crisp. I want to talk more in detail about him. Before starting with the U.S. Forest Service as a law enforcement officer in 2004, Jason Crisp served with the McDowell County Sheriff's Office in North Carolina for 7 years. He developed a reputation as a selfless person who was eager to provide assistance.    In 2014, Officer Crisp was investigating the case of a couple found dead in their home. There was evidence of a struggle and a missing vehicle. Police soon began to suspect that the couple's son was the killer. Over 100 officers from six agencies joined the manhunt. At about 3:00 p.m., the suspect purportedly ambushed Officer Crisp and his K-9 partner. He shot the dog and Officer Crisp, took Crisp's gun, and kept running.    An Avery County Sheriff's Deputy, and troopers assigned to Burke County who were near the shooting, attempted to save Officer Crisp's life, but they were unable to.    Soon after, the suspect was found and refused to drop his weapon. The suspect died of a self-inflicted gunshot wound.    U.S. Forest Service Officer Jason Crisp is survived by his wife, Amanda and his sons, Garrett and Logan. He was 38 years old.    I hope as we undertake these hearings that we will always remember the contributions and sacrifices of our law enforcement officers.    I yield back the balance of my time.</t>
   </si>
   <si>
@@ -82,27 +76,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ehnes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ehnes. Mr. Chairman, Ranking Member, and members of the committee, thank you for the opportunity to testify on the accountability, policies, and tactics of law enforcement within the Department of the Interior and the U.S. Forest Service.    My name is Russ Ehnes, and I am the Executive Director of the National Off-Highway Vehicle Conservation Council, or NOVCC. We are a 501(c)(3), nonprofit, educational foundation. We have a 25-year history of working in partnership with the U.S. Forest Service to improve the management of off-highway vehicles' opportunities nationwide.    Through that period, NOVCC has conducted dozens of off-highway vehicle management workshops across the Nation in every Forest Service region. We have also published a book entitled, Management Guidelines for Off-Highway Vehicle Recreation; and we will soon release a comprehensive off-highway vehicle trail design, construction, maintenance and management guidebook.    The common theme in all of these workshops and publications is the ``four E's,'' and the ``four E's'' are engineering, education, enforcement, and evaluation. The concept is simple. If managers apply proper engineering to trails and facilities, educate the public about how to use them responsibly, use enforcement when needed to address compliance issues, and evaluate the results and make adjustments, then OHV use will be successfully managed, sustainable, and fun.    The ``four E's'' are a simple and proven technique, and it has resulted in high quality, sustainable off-highway vehicle recreation opportunities across the Nation.    NOVCC is a strong proponent of enforcement, which is one of the ``four E's'' and one of the most important tools in the land manager's toolbox. Enforcement is critical not only for compliance, but is also an important educational tool. Not every encounter with the public results in a citation, nor should it.    Enforcement also contributes to visitor safety and to visitor sense of security while recreating on public lands. For the off-highway vehicle community, issues arise when the Forest Service supervisor and the district rangers cannot use enforcement to augment their management programs.    My personal example is similar to examples that NOVCC hears about across the country. I am currently the President of the Great Falls Trail Bike Riders Association, or GFTBRA. We have a very robust and successful partnership with the Lewis and Clark National Forest. GFTBRA contributes hundreds of hours of volunteer work every year, has a dozen certified sawyers, and employ two full-time seasonal workers to maintain trails. We've published over 80,000 maps in partnership with the U.S. Forest Service. The result is one of the best managed trail systems in the country.    In spite of these efforts, we still have compliance issues on holiday weekends in several locations. The few people causing the problems tend to be less involved in clubs. They're typically very casual users who show up once or twice a year on a holiday weekend and ride near campgrounds illegally. We know where they will be. We know when they will be there, and we know what they will be doing. Several years ago we asked the Forest Supervisor for help. We asked him to have the enforcement officers visit three key areas at key times.    He agreed that the timing was right and that the need for enforcement was critical, but could not promise that it would happen since he was not sure that this would be the top priority for his law enforcement person. He could only ask to see if it was the top priority of his LEO.    I mentioned we have a very strong partnership with the Lewis and Clark National Forest. Several years ago, we had a GFTBRA sponsored trail ride that was permitted in the Little Belt Mountains. At those rides, we inspect each and every vehicle to make sure they are in compliance with state sound limits, spark arresters, and to make sure that each vehicle is registered with its OHV decal. We also require the participants to wear helmets even though it is not required by state law.    Unbeknownst to us at that ride, and also unbeknownst to the recreation planner that we had worked with to coordinate the event, the U.S. Forest Service LEO set up a check station on a route leading into and out of the event. He did not issue any citations. Everyone was legal. However, the level of trust that we had worked to build with the Forest Service was damaged. Many of the riders wondered, ``Why didn't the LEO just stop at our staging area to check us? '' Many riders felt ambushed.    The issue is pretty simple as I see it. Forest supervisors are charged with managing national forests, and one of the most important tools in their toolbox is not dependably at their disposal. While cooperation between the supervisors and the law enforcement officer is generally the rule, it is the exception that causes problems for our community.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you. I appreciate your testimony.    At this time we will hear from Mr. Schoppmeyer. You are recognized for 5 minutes for testimony.</t>
   </si>
   <si>
-    <t>Schoppmeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schoppmeyer. Thank you, Chairman Gohmert, Ranking Member Dingell, and members of the Subcommittee on Oversight and Investigations.    Good morning, and thank you for the opportunity to provide testimony relative to this hearing.    My name is Chris Schoppmeyer. My retirement last year marked 34 years of service as a Federal law enforcement officer. My service to the country included time in the U.S. Fish and Wildlife Service as a wildlife inspector and refuge law enforcement officer and as Special Agent within NOAA, National Marine Fishery Service, Office of Enforcement.    I also served in local government for 25 years as a conservation commissioner and then chairman of the town's Forensic Oversight Committee for the town of Newmarket, New Hampshire.    This provides me with decades of experience with local government issues and conservation issues. I understand and can talk about the Federal land use and law enforcement issues from both Federal and local government perspectives.    In addition to my government work, I serve as the Vice President for Agency Affairs for the Federal Law Enforcement Officers Association, where I created the Federal Law Enforcement Officers Association Environmental and Natural Resource Working Group composed of all land management agencies in the Departments of the Interior and Agriculture, as well as the Environmental Protection Agency and the NOAA Fishery Service Office of Enforcement. This working group was created to address agency and legislative issues specific to nontraditional law enforcement.    With regards to my testimony, I am going to address three points that directly and adversely affect our members who are Federal law enforcement officers from the Forest Service, BLM, the U.S. Fish and Wildlife Service, National Park Service, and the Environmental Protection Agency, Criminal Investigation Division.    The first issue I will address is the need for expanded use of off-highway recreational vehicle use on our national forests and other public lands. The use of the OHRVs has skyrocketed in recent years to include the use of seasonal machines, such as snowmobiles. This increase has been documented on both state, county, and local lands, as well as private lands.    In many states you must attend and successfully pass the mandatory OHRV course before you can legally operate an OHRV on any lands. OHRVs provide access to environmentally sensitive and designated wilderness tracts that are set aside to protect flora and fauna species that are in decline or at risk of becoming imperiled or extinct.    The use of checkpoints applies to all OHRV users, regardless of their being permitted or not. The fact is that the use of the checkpoint is not limited to just the permit; it involves checking for proper safety equipment, awareness of regulations specific to the area, and safe operation of the OHRV for the protection of the rider and the public in the area. This could include detecting individuals who may be operating an OHRV or snowmobile under the influence of alcohol or narcotics.    Expansion of OHRVs on our national forests and other public lands presents other problems for the scarce number of Forest Service officers, whose uniformed officer numbers have decreased from 750 FTEs to less than 450 officers, according to senior managers of the Forest Service LE&amp;I.    The cultivation of marijuana groves in remote locations by DTOs, namely the Mexican cartel and other elements of organized crime, have significantly increased over the past decade, with evidence of marijuana groves being discovered as far north as the Upper Peninsula of Michigan.    The expanded use of OHRVs is already negatively impacting both public and private lands. I cite my home state of New Hampshire where OHRV regulations are enforced by conservation officers of New Hampshire Fish and Game. Despite the requirement of successful completion of the OHRV course, the number of fatalities increases and compliance is still an issue.    The second issue I will discuss just briefly is how dangerous conservation law enforcement is. Conservation law enforcement officers are nine times more likely to be assaulted with a dangerous weapon than traditional police officers. I only have to cite the two examples that the Ranking Member already did; and for the sake of time, I will only briefly mention that Officer Jason Crisp and his K-9, Maros, were brutally murdered in North Carolina.    The same on January 1, 2012. The National Park Service Law Enforcement Ranger Margaret Anderson was shot and killed while attempting to stop a fleeing suspect in Mount Rainier National Park. Unbeknownst to her, he was already wanted for serious felony crimes in the Seattle, Washington area.    The last point that I would like to discuss is on the regulations. I will address the premise that the Forest Service regulations do not require intent when violating, and result in over-criminalization of these regulations. Whether knowingly or unknowingly violating Forest Service regulations is the basis for enforcement action, it is usually based on the facts at hand, observations made, previous violation patterns, and the discretion of the Forest Service officer as to the level of action imposed.    The majority of regulatory offenses are petty in nature, but can range from a verbal warning to an arrest in the most extreme cases.    What I would suggest here, Mr. Chairman, is that--in my part, in the eastern side of the United States, we have very good relations between Federal, state, county, and local. I cite the other day a carry-out by New Hampshire Fish and Game in the White Mountain National Forest where we had the cooperation of the Forest Service, the Carroll County Sheriff's Department, and Pinkham Notch Rescue Squad. We had all of these local volunteers and, I have to say, that it is really astounding to me that we have such problems out West.    That concludes my testimony and I'm happy to take any questions you have. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you.    I will now hear from Mr. Larkin. You are recognized for 5 minutes to testify, sir.    Thank you.</t>
   </si>
   <si>
-    <t>Larkin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larkin. Thank you, Mr. Chairman, Madam Ranking Member, and other members of the subcommittee.    I am a 1980 graduate of the Stanford Law School and have spent the bulk of my legal career involved in the criminal justice system in one capacity or another. Among the positions I have held are the following: an attorney in the Organized Crime and Racketeering Section of the Criminal Division at the U.S. Justice Department; Assistant to the Solicitor General in the Office of the Solicitor General at the Justice Department; counsel to the Senate Judiciary Committee when it was under the Chairmanship of Senator Orrin Hatch; and Special Agent in Charge in the EPA Criminal Investigation Division.    I have also written on some of the subjects that this committee will address today and perhaps in the future.    I would like to make just a few brief points today. First, it is generally a mistake to use the criminal law for regulatory enforcement. For most of Anglo-American legal history, society has used the criminal law to punish crimes that violated local, cultural mores or norms. The result was that everyone in the community knew what was a crime.    Unfortunately, that is not always the case anymore. Over the last 150 years, American law has started to use the criminal process as an enforcement mechanism in the administrative agencies' enforcement of regulatory programs. While there is no problem with doing that through an administrative or civil process, there is a problem created when you try to use the criminal process.    The problem is, it can be extraordinarily difficult for people to know exactly where the line is between what is permitted and what is prohibited; and the result is you can have the same problems that arise from an unduly vague statute, namely, the average member of the public may not know exactly what is and is not a crime.    Second, even if Congress wants to use law enforcement to enforce regulatory regimes, the job will be better handled, I believe, by traditional law enforcement agencies, such as the Federal Bureau of Investigation and the U.S. Marshal Service.    The public is fully aware of those agencies, but the public, however, is oftentimes completely unaware of other more specialized law enforcement agencies, like those you see at particular regulatory agencies. The result is likely to lead to mistakes of identity, as well as perhaps the sort of problem you talked about, Mr. Chairman, in the overuse of Federal authority.    But equally important is that it runs the risk that regulatory agencies will use their law enforcement agencies on trivial cases in order simply to justify their budget and their existence. That is a problem throughout law enforcement generally. It is not limited just to these agencies, but it has perhaps become most acute when it is.    Third, overuse of SWAT teams and dynamic entries and the like has led to unfortunate results. Witness what happened when county officers made a dynamic entry into the home of the Berwyn Heights, Maryland mayor who was mistakenly suspected to be a drug trafficker. The officers shot and killed his two Labrador Retrievers and terrorized him and his family.    Different Federal agencies with regulatory responsibility have sought this sort of authority as well, and giving it to them, I think, is only likely to lead to more of these sorts of problems.    Given that--I think it was the Ranking Member who mentioned the Lacey Act--let me add just one last point and then I will give my remaining time to you. The Lacey Act raises a host of constitutional problems because of the way it is drafted. What the Lacey Act does is grant Federal lawmaking authority to foreign officials, people who are neither legally nor politically accountable to the public or by the courts.    The result is that the Lacey Act, for those reasons, violates Articles I and II of the Constitution as well as the due process clause.    I have explained this at length in an article that was recently published by the Harvard Journal of Law and Public Policy. I have a copy with me, and if you would like, I would be glad to give it to you for submission into the record.    With that, Mr. Chairman, Madam Ranking Member, I give you back my remaining time. I'm glad to answer any questions you have.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hice. Thank you very much, Mr. Chairman, and I appreciate this hearing to, frankly, examine the accountability of enforcement divisions of the Department of the Interior as well as the U.S. Forest Service.    Before I begin my questions, like a number of other Members here on the subcommittee, my home state of Georgia was directly impacted by the very issue that we are dealing with this morning. Both north Georgia and the western portion of North Carolina were recently the focal point of a 4-year, multi-Federal and state joint operation called ``Operation Something Bruin.''    I do not know if you are familiar with that, but it involved the Forest Service, Fish and Wildlife Service, Park Service, the Georgia Department of Natural Resources, and the North Carolina Wildlife Resources Commission, and what they were trying to do was to stop a group of individuals who were illegally killing bears in that portion of our country.    ``Operation Something Bruin'' came to a head in February of 2013 with the prosecution of 51 different individuals on both Federal and state charges. Last month our colleague, Mark Meadows, who is on the Oversight and Government Reform Committee, but chairs within that committee the Government Operations Subcommittee, held a field hearing in Waynesville, North Carolina, on that particular operation and how it transpired. It involved testimony from private citizens as well as Federal and state agencies.    What was found was alarming to me. Media reports as well as individual testimony found that at least three of our agents, undercover officers, actually killed bears during that, and they were actively involved in trying to entrap other hunters in that whole ordeal.    There were also accounts of our Federal raids--our agents federally raiding and seizing personal property, damaging property that was unrelated to the whole ordeal.    I commend Chairman Meadows on that particular operation, and, Chairman, I would like to ask unanimous consent to include letters from Mr. Meadows to the Inspectors General of the Department of the Interior and Agriculture and those responses in the record if I can, sir.</t>
   </si>
   <si>
@@ -163,12 +145,6 @@
     <t xml:space="preserve">    Mr. Gohmert. Thank you.    At this time I will recognize Mrs. Radewagen for 5 minutes.</t>
   </si>
   <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman and Ranking Member.    Mr. Ehnes, one of our witnesses is very critical of the impact your hobby has on the environment. Is this the sort of hostility you face from Federal law enforcement, or would this be an example of a rare exception that poisons the well at a time when you are trying to build trust with the agencies?</t>
   </si>
   <si>
@@ -178,9 +154,6 @@
     <t xml:space="preserve">    Mrs. Radewagen. Thank you.    Sheriff Brown, as an elected sheriff, you have a fundamental level of accountability that your colleagues in the Forest Service do not. How does this undermine your ability to keep your constituents safe?</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Sheriff Brown. The difference is exactly that. Much like all of you are elected and you have a responsibility to the citizens that put you here in Washington, I have that same responsibility. When there are problems in my county, those phone calls come to my office.    I cannot deal with either disciplinary issues or officer conduct issues with the Forest Service LEO in my county. However, if we have a good relationship, and I will tell you that I do today; and I can tell you that 15 years ago I did not. Things have changed for me in my county, and I have the ability to work with the Special Agent and the ability to speak directly with the Director here in Washington.    If there are issues, we can talk those things through; and I have to be able to assure the people that elected me, that put me in the position that I am in, that those issues are being addressed. Much like I would hold my deputies accountable, I expect the Forest Service to hold their officers accountable as well.</t>
   </si>
   <si>
@@ -199,9 +172,6 @@
     <t>412612</t>
   </si>
   <si>
-    <t>Ruben Gallego</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chairman.    Mr. Schoppmeyer, I apologize. Did I say that correctly?</t>
   </si>
   <si>
@@ -247,9 +217,6 @@
     <t>412662</t>
   </si>
   <si>
-    <t>Alexander X. Mooney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mooney. Thank you, Mr. Chairman.    Mr. Ehnes, in your testimony you singled out an experience where law enforcement set up a check station. Can you elaborate on what created an issue there and possibly damaged trust with the Forest Service?</t>
   </si>
   <si>
@@ -277,9 +244,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you for coming here today for this important hearing.    I will add that I have a lot of national forests in my district, and I spend a lot of time driving through them. Last year on the campaign trail, there was a one-vehicle accident in a very remote area; and Forest Service law enforcement were the first ones on the scene. They were the first responders. It was in an area where there was no cell phone reception, but they were able to use their radios and get other emergency personnel there.    So, they often work in remote areas by themselves, and I think the folks on the ground are doing a fantastic job at least in the national forest where I live.    Mr. Larkin, in his testimony Mr. Schoppmeyer explained that decriminalizing the Lacey Act would cripple the good guys in the fight to keep visitors safe and our greatest national treasures accessible to all. Could you give us your perspective on this view?</t>
   </si>
   <si>
@@ -299,9 +263,6 @@
   </si>
   <si>
     <t>400029</t>
-  </si>
-  <si>
-    <t>Rob Bishop</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you. Louie, I appreciate that.    Sheriff Brown, let me ask you a couple of questions if I could, because I think this is a significant issue; and I appreciate all four of you for being here talking about it. I think we need to go into greater detail on this particular issue at the same time.    You talked about how your situation is better than it was 15 years ago. Is that due to the personalities involved or is there a structural reason for that?</t>
@@ -781,11 +742,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -807,11 +766,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -833,11 +790,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -857,13 +812,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -885,11 +838,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -911,11 +862,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -935,13 +884,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -963,11 +910,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -987,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1015,11 +958,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1039,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1067,11 +1006,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1091,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1119,11 +1054,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1143,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1169,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1195,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1221,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1247,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1275,11 +1198,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1299,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1325,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1351,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1377,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1403,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1429,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1455,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1483,11 +1390,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1507,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1533,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1559,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1585,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1611,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1637,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1663,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
         <v>49</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1691,11 +1582,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1715,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1741,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1767,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1793,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1819,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1845,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1871,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1897,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1923,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1949,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1975,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
         <v>61</v>
-      </c>
-      <c r="H48" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2001,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2027,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2055,11 +1918,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2081,11 +1942,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2105,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2131,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2157,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2183,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2209,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2235,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2261,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2289,11 +2134,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2313,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2339,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2365,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2391,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2417,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2445,11 +2278,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2469,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2495,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2521,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2547,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2573,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2599,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2625,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2651,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2677,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2703,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2729,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2755,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2781,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>95</v>
-      </c>
-      <c r="H79" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2809,11 +2614,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2833,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2861,11 +2662,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2885,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2913,11 +2710,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2937,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2965,11 +2758,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2989,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3017,11 +2806,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3041,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3069,11 +2854,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3093,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3121,11 +2902,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3145,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3173,11 +2950,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95713.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95713.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Gohmert</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations will come to order.    This subcommittee is meeting today to hear testimony on accountability, policies, and tactics of law enforcement within the Department of the Interior and the U.S. Forest Service.    Under Committee Rule 4(f), any oral statements at this hearing are limited to the Chairman and Ranking Minority Member. This will allow us to hear from our witnesses sooner and let Members keep to their schedules.    Therefore, I ask unanimous consent that all other Members' opening statements for this meeting be made part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today.    Hearing no objection, so ordered.    Also, I politely ask that everyone in this hearing please silence your cell phones. Make sure that there is nothing that goes off. When I was a judge, I would have my bailiff confiscate any phones that went off; and then you had to do a couple hundred hours of community service to get it back. I do not have a bailiff here as such; so I just have to ask that you keep your cell phone silent, please. Thank you.    All right. I will now recognize myself for 5 minutes for an opening statement.</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t>412637</t>
   </si>
   <si>
+    <t>Dingell</t>
+  </si>
+  <si>
+    <t>Debbie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Dingell. Good morning and thank you, Mr. Chairman.    I want to give my thanks to all the witnesses this morning for taking the time and the trouble to testify, and I want to give particular thanks to Sheriff Brown and Mr. Schoppmeyer for their service.    Law enforcement within Federal land management agencies is no easy task. Conservation law enforcement officers face challenges that are significantly different than those faced by non-conservation law enforcement. The breadth of the crimes that they confront and the laws that they enforce are unlike any other.    As the Chairman has raised, there may be some problems; but we need to respect and understand the importance of what law enforcement is doing in these conservation areas.    A study of the crimes confronted by the Forest Service law enforcement officers found that they fall into three categories. The first is urban-associated crime, which includes arson, body dumping, gang activity, and other types of criminal behavior.    The second is drug activity, like armed defense of marijuana cultivation on Forest Service land, or methamphetamine labs--that is always a hard word.    The third is violence perpetrated by members of extremist and nontraditional groups, like satanic cults, survivalists, and militia/supremacy groups. These groups are tough.    The law enforcement officers there protect the resources we depend on every day and provide for public safety. While these officers' mandates are unique, the officers and the work that they do is under attack.    We will hear today about a proposal to weaken enforcement mechanisms for the Lacey Act by decriminalizing it, despite the use of illegally harvested plant or animal products, like ivory, to fund terrorist groups.    Like I do every night before our hearings, I was doing my late night study. The Chairman raised the issue of ``stove-piping.'' So I learned last night that it was instituted after years of pressure from watchdogs and Congress and was implemented to make Forest Service law enforcement more effective, fair, and independent.    So I want to make sure, as we are looking at it, that we are fair and objective on all of it, while I recognize that there may be issues.    And we will hear about the FOCUS Act, which would remove the ability for the Fish and Wildlife Service and NOAA enforcement officers to carry firearms.    The work performed by land management agency law enforcement is just as challenging, just as important, and just as dangerous as other law enforcement jobs. These Americans put their lives on the line whenever they report for work in an effort to protect us and our natural resources.    The Chairman mentioned Jason Crisp. I want to talk more in detail about him. Before starting with the U.S. Forest Service as a law enforcement officer in 2004, Jason Crisp served with the McDowell County Sheriff's Office in North Carolina for 7 years. He developed a reputation as a selfless person who was eager to provide assistance.    In 2014, Officer Crisp was investigating the case of a couple found dead in their home. There was evidence of a struggle and a missing vehicle. Police soon began to suspect that the couple's son was the killer. Over 100 officers from six agencies joined the manhunt. At about 3:00 p.m., the suspect purportedly ambushed Officer Crisp and his K-9 partner. He shot the dog and Officer Crisp, took Crisp's gun, and kept running.    An Avery County Sheriff's Deputy, and troopers assigned to Burke County who were near the shooting, attempted to save Officer Crisp's life, but they were unable to.    Soon after, the suspect was found and refused to drop his weapon. The suspect died of a self-inflicted gunshot wound.    U.S. Forest Service Officer Jason Crisp is survived by his wife, Amanda and his sons, Garrett and Logan. He was 38 years old.    I hope as we undertake these hearings that we will always remember the contributions and sacrifices of our law enforcement officers.    I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,18 +91,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Ehnes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ehnes. Mr. Chairman, Ranking Member, and members of the committee, thank you for the opportunity to testify on the accountability, policies, and tactics of law enforcement within the Department of the Interior and the U.S. Forest Service.    My name is Russ Ehnes, and I am the Executive Director of the National Off-Highway Vehicle Conservation Council, or NOVCC. We are a 501(c)(3), nonprofit, educational foundation. We have a 25-year history of working in partnership with the U.S. Forest Service to improve the management of off-highway vehicles' opportunities nationwide.    Through that period, NOVCC has conducted dozens of off-highway vehicle management workshops across the Nation in every Forest Service region. We have also published a book entitled, Management Guidelines for Off-Highway Vehicle Recreation; and we will soon release a comprehensive off-highway vehicle trail design, construction, maintenance and management guidebook.    The common theme in all of these workshops and publications is the ``four E's,'' and the ``four E's'' are engineering, education, enforcement, and evaluation. The concept is simple. If managers apply proper engineering to trails and facilities, educate the public about how to use them responsibly, use enforcement when needed to address compliance issues, and evaluate the results and make adjustments, then OHV use will be successfully managed, sustainable, and fun.    The ``four E's'' are a simple and proven technique, and it has resulted in high quality, sustainable off-highway vehicle recreation opportunities across the Nation.    NOVCC is a strong proponent of enforcement, which is one of the ``four E's'' and one of the most important tools in the land manager's toolbox. Enforcement is critical not only for compliance, but is also an important educational tool. Not every encounter with the public results in a citation, nor should it.    Enforcement also contributes to visitor safety and to visitor sense of security while recreating on public lands. For the off-highway vehicle community, issues arise when the Forest Service supervisor and the district rangers cannot use enforcement to augment their management programs.    My personal example is similar to examples that NOVCC hears about across the country. I am currently the President of the Great Falls Trail Bike Riders Association, or GFTBRA. We have a very robust and successful partnership with the Lewis and Clark National Forest. GFTBRA contributes hundreds of hours of volunteer work every year, has a dozen certified sawyers, and employ two full-time seasonal workers to maintain trails. We've published over 80,000 maps in partnership with the U.S. Forest Service. The result is one of the best managed trail systems in the country.    In spite of these efforts, we still have compliance issues on holiday weekends in several locations. The few people causing the problems tend to be less involved in clubs. They're typically very casual users who show up once or twice a year on a holiday weekend and ride near campgrounds illegally. We know where they will be. We know when they will be there, and we know what they will be doing. Several years ago we asked the Forest Supervisor for help. We asked him to have the enforcement officers visit three key areas at key times.    He agreed that the timing was right and that the need for enforcement was critical, but could not promise that it would happen since he was not sure that this would be the top priority for his law enforcement person. He could only ask to see if it was the top priority of his LEO.    I mentioned we have a very strong partnership with the Lewis and Clark National Forest. Several years ago, we had a GFTBRA sponsored trail ride that was permitted in the Little Belt Mountains. At those rides, we inspect each and every vehicle to make sure they are in compliance with state sound limits, spark arresters, and to make sure that each vehicle is registered with its OHV decal. We also require the participants to wear helmets even though it is not required by state law.    Unbeknownst to us at that ride, and also unbeknownst to the recreation planner that we had worked with to coordinate the event, the U.S. Forest Service LEO set up a check station on a route leading into and out of the event. He did not issue any citations. Everyone was legal. However, the level of trust that we had worked to build with the Forest Service was damaged. Many of the riders wondered, ``Why didn't the LEO just stop at our staging area to check us? '' Many riders felt ambushed.    The issue is pretty simple as I see it. Forest supervisors are charged with managing national forests, and one of the most important tools in their toolbox is not dependably at their disposal. While cooperation between the supervisors and the law enforcement officer is generally the rule, it is the exception that causes problems for our community.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you. I appreciate your testimony.    At this time we will hear from Mr. Schoppmeyer. You are recognized for 5 minutes for testimony.</t>
   </si>
   <si>
+    <t>Schoppmeyer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schoppmeyer. Thank you, Chairman Gohmert, Ranking Member Dingell, and members of the Subcommittee on Oversight and Investigations.    Good morning, and thank you for the opportunity to provide testimony relative to this hearing.    My name is Chris Schoppmeyer. My retirement last year marked 34 years of service as a Federal law enforcement officer. My service to the country included time in the U.S. Fish and Wildlife Service as a wildlife inspector and refuge law enforcement officer and as Special Agent within NOAA, National Marine Fishery Service, Office of Enforcement.    I also served in local government for 25 years as a conservation commissioner and then chairman of the town's Forensic Oversight Committee for the town of Newmarket, New Hampshire.    This provides me with decades of experience with local government issues and conservation issues. I understand and can talk about the Federal land use and law enforcement issues from both Federal and local government perspectives.    In addition to my government work, I serve as the Vice President for Agency Affairs for the Federal Law Enforcement Officers Association, where I created the Federal Law Enforcement Officers Association Environmental and Natural Resource Working Group composed of all land management agencies in the Departments of the Interior and Agriculture, as well as the Environmental Protection Agency and the NOAA Fishery Service Office of Enforcement. This working group was created to address agency and legislative issues specific to nontraditional law enforcement.    With regards to my testimony, I am going to address three points that directly and adversely affect our members who are Federal law enforcement officers from the Forest Service, BLM, the U.S. Fish and Wildlife Service, National Park Service, and the Environmental Protection Agency, Criminal Investigation Division.    The first issue I will address is the need for expanded use of off-highway recreational vehicle use on our national forests and other public lands. The use of the OHRVs has skyrocketed in recent years to include the use of seasonal machines, such as snowmobiles. This increase has been documented on both state, county, and local lands, as well as private lands.    In many states you must attend and successfully pass the mandatory OHRV course before you can legally operate an OHRV on any lands. OHRVs provide access to environmentally sensitive and designated wilderness tracts that are set aside to protect flora and fauna species that are in decline or at risk of becoming imperiled or extinct.    The use of checkpoints applies to all OHRV users, regardless of their being permitted or not. The fact is that the use of the checkpoint is not limited to just the permit; it involves checking for proper safety equipment, awareness of regulations specific to the area, and safe operation of the OHRV for the protection of the rider and the public in the area. This could include detecting individuals who may be operating an OHRV or snowmobile under the influence of alcohol or narcotics.    Expansion of OHRVs on our national forests and other public lands presents other problems for the scarce number of Forest Service officers, whose uniformed officer numbers have decreased from 750 FTEs to less than 450 officers, according to senior managers of the Forest Service LE&amp;I.    The cultivation of marijuana groves in remote locations by DTOs, namely the Mexican cartel and other elements of organized crime, have significantly increased over the past decade, with evidence of marijuana groves being discovered as far north as the Upper Peninsula of Michigan.    The expanded use of OHRVs is already negatively impacting both public and private lands. I cite my home state of New Hampshire where OHRV regulations are enforced by conservation officers of New Hampshire Fish and Game. Despite the requirement of successful completion of the OHRV course, the number of fatalities increases and compliance is still an issue.    The second issue I will discuss just briefly is how dangerous conservation law enforcement is. Conservation law enforcement officers are nine times more likely to be assaulted with a dangerous weapon than traditional police officers. I only have to cite the two examples that the Ranking Member already did; and for the sake of time, I will only briefly mention that Officer Jason Crisp and his K-9, Maros, were brutally murdered in North Carolina.    The same on January 1, 2012. The National Park Service Law Enforcement Ranger Margaret Anderson was shot and killed while attempting to stop a fleeing suspect in Mount Rainier National Park. Unbeknownst to her, he was already wanted for serious felony crimes in the Seattle, Washington area.    The last point that I would like to discuss is on the regulations. I will address the premise that the Forest Service regulations do not require intent when violating, and result in over-criminalization of these regulations. Whether knowingly or unknowingly violating Forest Service regulations is the basis for enforcement action, it is usually based on the facts at hand, observations made, previous violation patterns, and the discretion of the Forest Service officer as to the level of action imposed.    The majority of regulatory offenses are petty in nature, but can range from a verbal warning to an arrest in the most extreme cases.    What I would suggest here, Mr. Chairman, is that--in my part, in the eastern side of the United States, we have very good relations between Federal, state, county, and local. I cite the other day a carry-out by New Hampshire Fish and Game in the White Mountain National Forest where we had the cooperation of the Forest Service, the Carroll County Sheriff's Department, and Pinkham Notch Rescue Squad. We had all of these local volunteers and, I have to say, that it is really astounding to me that we have such problems out West.    That concludes my testimony and I'm happy to take any questions you have. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you.    I will now hear from Mr. Larkin. You are recognized for 5 minutes to testify, sir.    Thank you.</t>
   </si>
   <si>
+    <t>Larkin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larkin. Thank you, Mr. Chairman, Madam Ranking Member, and other members of the subcommittee.    I am a 1980 graduate of the Stanford Law School and have spent the bulk of my legal career involved in the criminal justice system in one capacity or another. Among the positions I have held are the following: an attorney in the Organized Crime and Racketeering Section of the Criminal Division at the U.S. Justice Department; Assistant to the Solicitor General in the Office of the Solicitor General at the Justice Department; counsel to the Senate Judiciary Committee when it was under the Chairmanship of Senator Orrin Hatch; and Special Agent in Charge in the EPA Criminal Investigation Division.    I have also written on some of the subjects that this committee will address today and perhaps in the future.    I would like to make just a few brief points today. First, it is generally a mistake to use the criminal law for regulatory enforcement. For most of Anglo-American legal history, society has used the criminal law to punish crimes that violated local, cultural mores or norms. The result was that everyone in the community knew what was a crime.    Unfortunately, that is not always the case anymore. Over the last 150 years, American law has started to use the criminal process as an enforcement mechanism in the administrative agencies' enforcement of regulatory programs. While there is no problem with doing that through an administrative or civil process, there is a problem created when you try to use the criminal process.    The problem is, it can be extraordinarily difficult for people to know exactly where the line is between what is permitted and what is prohibited; and the result is you can have the same problems that arise from an unduly vague statute, namely, the average member of the public may not know exactly what is and is not a crime.    Second, even if Congress wants to use law enforcement to enforce regulatory regimes, the job will be better handled, I believe, by traditional law enforcement agencies, such as the Federal Bureau of Investigation and the U.S. Marshal Service.    The public is fully aware of those agencies, but the public, however, is oftentimes completely unaware of other more specialized law enforcement agencies, like those you see at particular regulatory agencies. The result is likely to lead to mistakes of identity, as well as perhaps the sort of problem you talked about, Mr. Chairman, in the overuse of Federal authority.    But equally important is that it runs the risk that regulatory agencies will use their law enforcement agencies on trivial cases in order simply to justify their budget and their existence. That is a problem throughout law enforcement generally. It is not limited just to these agencies, but it has perhaps become most acute when it is.    Third, overuse of SWAT teams and dynamic entries and the like has led to unfortunate results. Witness what happened when county officers made a dynamic entry into the home of the Berwyn Heights, Maryland mayor who was mistakenly suspected to be a drug trafficker. The officers shot and killed his two Labrador Retrievers and terrorized him and his family.    Different Federal agencies with regulatory responsibility have sought this sort of authority as well, and giving it to them, I think, is only likely to lead to more of these sorts of problems.    Given that--I think it was the Ranking Member who mentioned the Lacey Act--let me add just one last point and then I will give my remaining time to you. The Lacey Act raises a host of constitutional problems because of the way it is drafted. What the Lacey Act does is grant Federal lawmaking authority to foreign officials, people who are neither legally nor politically accountable to the public or by the courts.    The result is that the Lacey Act, for those reasons, violates Articles I and II of the Constitution as well as the due process clause.    I have explained this at length in an article that was recently published by the Harvard Journal of Law and Public Policy. I have a copy with me, and if you would like, I would be glad to give it to you for submission into the record.    With that, Mr. Chairman, Madam Ranking Member, I give you back my remaining time. I'm glad to answer any questions you have.</t>
   </si>
   <si>
@@ -97,6 +121,12 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hice. Thank you very much, Mr. Chairman, and I appreciate this hearing to, frankly, examine the accountability of enforcement divisions of the Department of the Interior as well as the U.S. Forest Service.    Before I begin my questions, like a number of other Members here on the subcommittee, my home state of Georgia was directly impacted by the very issue that we are dealing with this morning. Both north Georgia and the western portion of North Carolina were recently the focal point of a 4-year, multi-Federal and state joint operation called ``Operation Something Bruin.''    I do not know if you are familiar with that, but it involved the Forest Service, Fish and Wildlife Service, Park Service, the Georgia Department of Natural Resources, and the North Carolina Wildlife Resources Commission, and what they were trying to do was to stop a group of individuals who were illegally killing bears in that portion of our country.    ``Operation Something Bruin'' came to a head in February of 2013 with the prosecution of 51 different individuals on both Federal and state charges. Last month our colleague, Mark Meadows, who is on the Oversight and Government Reform Committee, but chairs within that committee the Government Operations Subcommittee, held a field hearing in Waynesville, North Carolina, on that particular operation and how it transpired. It involved testimony from private citizens as well as Federal and state agencies.    What was found was alarming to me. Media reports as well as individual testimony found that at least three of our agents, undercover officers, actually killed bears during that, and they were actively involved in trying to entrap other hunters in that whole ordeal.    There were also accounts of our Federal raids--our agents federally raiding and seizing personal property, damaging property that was unrelated to the whole ordeal.    I commend Chairman Meadows on that particular operation, and, Chairman, I would like to ask unanimous consent to include letters from Mr. Meadows to the Inspectors General of the Department of the Interior and Agriculture and those responses in the record if I can, sir.</t>
   </si>
   <si>
@@ -145,6 +175,9 @@
     <t xml:space="preserve">    Mr. Gohmert. Thank you.    At this time I will recognize Mrs. Radewagen for 5 minutes.</t>
   </si>
   <si>
+    <t>Radewagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman and Ranking Member.    Mr. Ehnes, one of our witnesses is very critical of the impact your hobby has on the environment. Is this the sort of hostility you face from Federal law enforcement, or would this be an example of a rare exception that poisons the well at a time when you are trying to build trust with the agencies?</t>
   </si>
   <si>
@@ -154,6 +187,9 @@
     <t xml:space="preserve">    Mrs. Radewagen. Thank you.    Sheriff Brown, as an elected sheriff, you have a fundamental level of accountability that your colleagues in the Forest Service do not. How does this undermine your ability to keep your constituents safe?</t>
   </si>
   <si>
+    <t>Brown</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Sheriff Brown. The difference is exactly that. Much like all of you are elected and you have a responsibility to the citizens that put you here in Washington, I have that same responsibility. When there are problems in my county, those phone calls come to my office.    I cannot deal with either disciplinary issues or officer conduct issues with the Forest Service LEO in my county. However, if we have a good relationship, and I will tell you that I do today; and I can tell you that 15 years ago I did not. Things have changed for me in my county, and I have the ability to work with the Special Agent and the ability to speak directly with the Director here in Washington.    If there are issues, we can talk those things through; and I have to be able to assure the people that elected me, that put me in the position that I am in, that those issues are being addressed. Much like I would hold my deputies accountable, I expect the Forest Service to hold their officers accountable as well.</t>
   </si>
   <si>
@@ -172,6 +208,12 @@
     <t>412612</t>
   </si>
   <si>
+    <t>Gallego</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chairman.    Mr. Schoppmeyer, I apologize. Did I say that correctly?</t>
   </si>
   <si>
@@ -217,6 +259,12 @@
     <t>412662</t>
   </si>
   <si>
+    <t>Mooney</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mooney. Thank you, Mr. Chairman.    Mr. Ehnes, in your testimony you singled out an experience where law enforcement set up a check station. Can you elaborate on what created an issue there and possibly damaged trust with the Forest Service?</t>
   </si>
   <si>
@@ -244,6 +292,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you for coming here today for this important hearing.    I will add that I have a lot of national forests in my district, and I spend a lot of time driving through them. Last year on the campaign trail, there was a one-vehicle accident in a very remote area; and Forest Service law enforcement were the first ones on the scene. They were the first responders. It was in an area where there was no cell phone reception, but they were able to use their radios and get other emergency personnel there.    So, they often work in remote areas by themselves, and I think the folks on the ground are doing a fantastic job at least in the national forest where I live.    Mr. Larkin, in his testimony Mr. Schoppmeyer explained that decriminalizing the Lacey Act would cripple the good guys in the fight to keep visitors safe and our greatest national treasures accessible to all. Could you give us your perspective on this view?</t>
   </si>
   <si>
@@ -263,6 +317,12 @@
   </si>
   <si>
     <t>400029</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Rob</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you. Louie, I appreciate that.    Sheriff Brown, let me ask you a couple of questions if I could, because I think this is a significant issue; and I appreciate all four of you for being here talking about it. I think we need to go into greater detail on this particular issue at the same time.    You talked about how your situation is better than it was 15 years ago. Is that due to the personalities involved or is there a structural reason for that?</t>
@@ -692,7 +752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +760,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,2237 +782,2633 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
         <v>19</v>
       </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G48" t="s">
+        <v>64</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G61" t="s">
+        <v>92</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>101</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>101</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>101</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>101</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>101</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>101</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G79" t="s">
+        <v>101</v>
+      </c>
       <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95713.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95713.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Gohmert</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>412637</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Dingell</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Hice</t>
   </si>
   <si>
@@ -317,6 +329,9 @@
   </si>
   <si>
     <t>400029</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Bishop</t>
@@ -752,7 +767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +775,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,2630 +800,2840 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G67" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H67" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>61</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>57</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>61</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G71" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>57</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>57</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>61</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G75" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>57</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>57</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G79" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>57</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>61</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>57</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>57</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>129</v>
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
